--- a/EtoSQL3/ExcelFile/Student4.xlsx
+++ b/EtoSQL3/ExcelFile/Student4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\OneDrive - sci.sjp.ac.lk\Desktop\ddddd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\OneDrive - sci.sjp.ac.lk\Desktop\ddddd\UPLOAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E705B7-C33A-490B-8982-CA061C2FB8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA8BEAB-5D19-4B63-8AE5-6D4021437255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,20 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>H402</t>
   </si>
   <si>
-    <t>Module+A3:D9</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
-    <t>FG Referance #</t>
-  </si>
-  <si>
     <t>Customer Style</t>
   </si>
   <si>
@@ -76,6 +70,15 @@
   </si>
   <si>
     <t>VINTAGE TROPIC BLUE</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>FG Referance</t>
+  </si>
+  <si>
+    <t>Sales Order</t>
   </si>
 </sst>
 </file>
@@ -104,7 +107,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +117,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -145,11 +160,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,69 +447,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="B2" s="3">
         <v>7000776941</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3">
         <v>172754</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1000839185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>7000776940</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3">
         <v>172754</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2000162719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -500,16 +528,19 @@
         <v>7000836412</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="4">
+        <v>555555555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -517,16 +548,19 @@
         <v>7000836408</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="3">
+        <v>1000839185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -534,16 +568,19 @@
         <v>7000836192</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="5">
+        <v>1000883300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -551,14 +588,26 @@
         <v>7000836192</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="F7" s="3">
+        <v>1000883300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
